--- a/Documentacion/Lista_de_Entregables_Hito_DOS.xlsx
+++ b/Documentacion/Lista_de_Entregables_Hito_DOS.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Lista de Entregables HITO 1</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>V2</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>Vídeo con animación del logo de la empresa</t>
-  </si>
-  <si>
-    <t>Cartel juego</t>
   </si>
   <si>
     <t>Sistema de búsqueda de caminos y control (Pathplanning/following)</t>
@@ -133,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,8 +169,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,30 +191,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -230,31 +203,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3FC8"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3FC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -292,55 +277,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,6 +328,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3FC8"/>
       <color rgb="FF21FF51"/>
     </mruColors>
   </colors>
@@ -626,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -679,269 +659,326 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="14"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="17">
         <v>50</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="18">
         <v>4.55</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="19"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" ht="15">
-      <c r="B8" s="14"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="E8" s="17">
+        <v>55</v>
+      </c>
+      <c r="F8" s="18">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="15">
-      <c r="B9" s="14"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17">
+        <v>90</v>
+      </c>
+      <c r="F9" s="18">
+        <v>8.18</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" ht="15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10">
+        <v>70</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6.36</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" ht="15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1.82</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" ht="15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" ht="15">
-      <c r="B10" s="14"/>
-      <c r="C10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" ht="15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="15">
-      <c r="B12" s="14"/>
-      <c r="C12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="10">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3.18</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:9" ht="15">
-      <c r="B13" s="14"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" ht="15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" ht="15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="22">
+        <v>24</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" ht="15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="22">
+        <v>24</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="22">
+        <v>4</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="22">
+        <v>4</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="22">
+        <v>8</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="22">
+        <v>8</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="22">
+        <v>8</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15">
+      <c r="C22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" ht="15">
-      <c r="B14" s="14"/>
-      <c r="C14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="E22" s="23">
+        <v>50</v>
+      </c>
+      <c r="F22" s="23">
+        <v>3</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+      <c r="C23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="2:9" ht="15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:7" ht="15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="2:7" ht="15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="2:7" ht="15">
-      <c r="B19" s="14"/>
-      <c r="C19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="2:7" ht="15">
-      <c r="B20" s="14"/>
-      <c r="C20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="2:7" ht="15">
-      <c r="B21" s="14"/>
-      <c r="C21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="E23" s="23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+      <c r="C24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="23">
+        <v>20</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+      <c r="C25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="2:7" ht="15">
-      <c r="B22" s="14"/>
-      <c r="C22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="2:7" ht="15">
-      <c r="B23" s="14"/>
-      <c r="C23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="E25" s="24">
+        <v>6</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+      <c r="C26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="2:7" ht="15">
-      <c r="C24" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="C25" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="C26" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="24">
+        <v>15</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="C28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="C29" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="E27" s="24">
+        <v>5</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/Lista_de_Entregables_Hito_DOS.xlsx
+++ b/Documentacion/Lista_de_Entregables_Hito_DOS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Lista de Entregables HITO 1</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Multijugador en tiempo real</t>
-  </si>
-  <si>
-    <t>Creación de un editor de niveles</t>
   </si>
   <si>
     <t>Implementación de cámara de seguimiento</t>
@@ -606,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -715,12 +712,11 @@
         <v>11</v>
       </c>
       <c r="E10" s="10">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11">
-        <v>6.36</v>
-      </c>
-      <c r="G10" s="11"/>
+        <v>1.82</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:9" ht="15">
@@ -732,11 +728,12 @@
         <v>12</v>
       </c>
       <c r="E11" s="10">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F11" s="11">
-        <v>1.82</v>
-      </c>
+        <v>3.18</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" ht="15">
@@ -748,12 +745,11 @@
         <v>13</v>
       </c>
       <c r="E12" s="10">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F12" s="11">
-        <v>3.18</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:9" ht="15">
@@ -765,33 +761,33 @@
         <v>14</v>
       </c>
       <c r="E13" s="10">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F13" s="11">
-        <v>0.55000000000000004</v>
+        <v>2.73</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:9" ht="15">
       <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10">
-        <v>30</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2.73</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="22">
+        <v>24</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="2:9" ht="15">
       <c r="B15" s="8"/>
       <c r="C15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>21</v>
@@ -802,27 +798,26 @@
       <c r="F15" s="22">
         <v>2.5</v>
       </c>
-      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:9" ht="15">
       <c r="B16" s="8"/>
       <c r="C16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="22">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F16" s="22">
-        <v>2.5</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15">
       <c r="B17" s="8"/>
       <c r="C17" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>23</v>
@@ -837,22 +832,22 @@
     <row r="18" spans="2:7" ht="15">
       <c r="B18" s="8"/>
       <c r="C18" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" s="22">
-        <v>0.41699999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15">
       <c r="B19" s="8"/>
       <c r="C19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>25</v>
@@ -861,13 +856,13 @@
         <v>8</v>
       </c>
       <c r="F19" s="22">
-        <v>0.83299999999999996</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15">
       <c r="B20" s="8"/>
       <c r="C20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>26</v>
@@ -876,42 +871,41 @@
         <v>8</v>
       </c>
       <c r="F20" s="22">
-        <v>0.83</v>
+        <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="22">
-        <v>8</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15">
+      <c r="C21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="23">
+        <v>50</v>
+      </c>
+      <c r="F21" s="23">
+        <v>3</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="C22" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F22" s="23">
-        <v>3</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="C23" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>18</v>
@@ -920,63 +914,49 @@
         <v>20</v>
       </c>
       <c r="F23" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="C24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="23">
-        <v>20</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
+      <c r="C24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="24">
+        <v>6</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F25" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="16"/>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="C26" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F26" s="24">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="C27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="24">
-        <v>5</v>
-      </c>
-      <c r="F27" s="24">
         <v>0.5</v>
       </c>
     </row>
